--- a/palabras reservadas.xlsx
+++ b/palabras reservadas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sigar.JUAN\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emanu\OneDrive\Documentos\GitHub\Compiladores6to\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2449A61-034C-412D-983C-6949E677BACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E6DDB9-35CF-448B-A327-2D8A7C9AD0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{68A45492-F983-419C-8157-91171356A23F}"/>
+    <workbookView xWindow="-15480" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{68A45492-F983-419C-8157-91171356A23F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>se utiliza para declarar sumas</t>
   </si>
@@ -69,27 +69,15 @@
     <t>Indica que es un metodo, no devuleve ningun valor(void)</t>
   </si>
   <si>
-    <t>Marca el inicio del programa(program)</t>
-  </si>
-  <si>
     <t>Alistar</t>
   </si>
   <si>
-    <t>Se usa para declarar variables(var)</t>
-  </si>
-  <si>
     <t>Ashe</t>
   </si>
   <si>
     <t>Se usa para declarar variables(letras,numero y simbolos)(String)</t>
   </si>
   <si>
-    <t>Anni</t>
-  </si>
-  <si>
-    <t>Se usa para declarar variables de numeros enteros(int)</t>
-  </si>
-  <si>
     <t>Ammu</t>
   </si>
   <si>
@@ -168,16 +156,207 @@
     <t>Darius</t>
   </si>
   <si>
-    <t>Veiga</t>
-  </si>
-  <si>
     <t>Representa un solo carácter(char)</t>
   </si>
   <si>
-    <t>Indica el final de una declaracion o instrucción</t>
-  </si>
-  <si>
     <t>Akali</t>
+  </si>
+  <si>
+    <t>Veigar</t>
+  </si>
+  <si>
+    <t>Annie</t>
+  </si>
+  <si>
+    <r>
+      <t>Marca el inicio del programa(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>program</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Indica el final de una declaracion o instrucción (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Indica una constante (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Mundo</t>
+  </si>
+  <si>
+    <r>
+      <t>Indica un tipo de Dato (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Draven</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <r>
+      <t>Se ocupa como asignacion de datos (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Se usa para declarar variables(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>var</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Se usa para declarar variables de numeros enteros(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -215,7 +394,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -325,9 +504,46 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -338,6 +554,73 @@
         <color indexed="64"/>
       </left>
       <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -350,7 +633,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -395,10 +678,46 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -418,9 +737,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -458,7 +777,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -564,7 +883,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -706,7 +1025,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -714,284 +1033,332 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46073DD4-5167-4E75-9515-EDCF81F3CCF4}">
-  <dimension ref="B1:E25"/>
+  <dimension ref="B1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="3" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:5" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="7"/>
       <c r="C2" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="10">
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="10">
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="10">
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="10">
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:5" s="2" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" s="2" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="12">
         <v>5</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="2:5" s="2" customFormat="1" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" s="2" customFormat="1" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10">
         <v>6</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="10">
         <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B10" s="10">
         <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B11" s="10">
         <v>9</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" ht="75" x14ac:dyDescent="0.25">
       <c r="B12" s="12">
         <v>10</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B13" s="10">
         <v>11</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="10">
         <v>12</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="10">
         <v>13</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B16" s="10">
         <v>14</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B17" s="12">
         <v>15</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B18" s="10">
         <v>16</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="10">
         <v>17</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="10">
         <v>18</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B21" s="10">
         <v>19</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="12">
         <v>20</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="10">
         <v>21</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="10">
         <v>22</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B25" s="16">
         <v>23</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26" s="23">
+        <v>24</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="24" t="s">
         <v>46</v>
       </c>
+    </row>
+    <row r="27" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B27" s="23">
+        <v>25</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B28" s="23">
+        <v>26</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="21"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="22"/>
+    </row>
+    <row r="30" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="14"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="15"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="18"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
